--- a/src/assets/frame/excel/certificatePrintTemplate.xlsx
+++ b/src/assets/frame/excel/certificatePrintTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96796304-DA6D-4893-85C2-89786186C2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12541CE-1544-459D-8A93-92EC91705FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,9 +93,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,11 +377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -392,20 +389,18 @@
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -415,20 +410,27 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="必须是日期格式" error="如：1900-05-02 12:30" promptTitle="输入格式必须是：" prompt="2022-10-11 12:30" sqref="D1:D1048576" xr:uid="{947703F6-905D-4318-9F3B-141BF005E6C4}">
-      <formula1>36161</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
